--- a/worked-exercises/addresses-to-coordinates/data/street-addresses.xlsx
+++ b/worked-exercises/addresses-to-coordinates/data/street-addresses.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinjhnhadley/Github/rfortherestofus_mapping-with-r/worked-exercises/addresses-to-coordinates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512B2EE-E28D-0D4C-BEAA-C24B21756FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D879F4-4EF2-6347-86D9-B6495931544F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="460" windowWidth="25600" windowHeight="27400" activeTab="1" xr2:uid="{144E9E96-4277-9743-A782-0A2594FEF736}"/>
+    <workbookView xWindow="10960" yWindow="1080" windowWidth="25600" windowHeight="27400" activeTab="1" xr2:uid="{144E9E96-4277-9743-A782-0A2594FEF736}"/>
   </bookViews>
   <sheets>
     <sheet name="UK Addresses" sheetId="1" r:id="rId1"/>
     <sheet name="International Addresses" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -199,8 +200,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -228,8 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,44 +697,47 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -914,5 +927,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>